--- a/Race Dashboard data/unplanned_tech_loss.xlsx
+++ b/Race Dashboard data/unplanned_tech_loss.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanofi.sharepoint.com/sites/SanofixMcLarensharing/Shared Documents/General/Race Dashboard data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CD1E5F3-74B7-44EE-9D01-DBDB8266CB52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC761A72-3438-4567-947A-9E8038C61A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="13965" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="47">
   <si>
     <t>Week</t>
   </si>
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>0.65344179690836157</v>
+        <v>0.65344179690836146</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>0.29081871345029231</v>
+        <v>0.29081871345029242</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1">
-        <v>0.29047712418300659</v>
+        <v>0.2904771241830067</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,7 +775,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>0.1019536782471049</v>
+        <v>0.1019536782471048</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,7 +819,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>0.1963094299973733</v>
+        <v>0.19630942999737319</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>0.24721358664363821</v>
+        <v>0.24721358664363829</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>0.23270963891375701</v>
+        <v>0.23270963891375709</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="1">
-        <v>0.2813738738738738</v>
+        <v>0.28137387387387391</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>0.39846929251446739</v>
+        <v>0.39846929251446711</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>0.18401369619352539</v>
+        <v>0.18401369619352551</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,7 +1039,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="1">
-        <v>0.14533730158730171</v>
+        <v>0.1453373015873016</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
       <c r="C44" s="1">
-        <v>0.20660779768818391</v>
+        <v>0.20660779768818369</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="C49" s="1">
-        <v>0.23672764227642271</v>
+        <v>0.23672764227642279</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>10</v>
       </c>
       <c r="C51" s="1">
-        <v>0.11385508226279011</v>
+        <v>0.1138550822627902</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1149,7 +1149,7 @@
         <v>11</v>
       </c>
       <c r="C52" s="1">
-        <v>0.24011284722222229</v>
+        <v>0.2401128472222222</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
         <v>13</v>
       </c>
       <c r="C54" s="1">
-        <v>0.33892030423280428</v>
+        <v>0.33892030423280423</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="1">
-        <v>0.2207778683328806</v>
+        <v>0.22077786833288049</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,7 +1204,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>0.59078423000284674</v>
+        <v>0.59078423000284686</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,7 +1226,7 @@
         <v>7</v>
       </c>
       <c r="C59" s="1">
-        <v>0.17902564102564089</v>
+        <v>0.179025641025641</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,7 +1237,7 @@
         <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>0.22799474030243269</v>
+        <v>0.22799474030243261</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>9</v>
       </c>
       <c r="C61" s="1">
-        <v>0.1820076705019176</v>
+        <v>0.18200767050191771</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,7 +1259,7 @@
         <v>10</v>
       </c>
       <c r="C62" s="1">
-        <v>0.1494992846924178</v>
+        <v>0.14949928469241769</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1292,7 +1292,7 @@
         <v>13</v>
       </c>
       <c r="C65" s="1">
-        <v>0.22455156136528689</v>
+        <v>0.22455156136528701</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>0.18376906318082789</v>
+        <v>0.18376906318082781</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1358,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="C71" s="1">
-        <v>0.2103377192982456</v>
+        <v>0.21033771929824549</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1369,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="C72" s="1">
-        <v>6.8059680384669766E-2</v>
+        <v>6.8059680384669752E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1380,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="C73" s="1">
-        <v>0.19170380273321441</v>
+        <v>0.1917038027332145</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="C75" s="1">
-        <v>9.3695436507936505E-2</v>
+        <v>9.3695436507936533E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="C76" s="1">
-        <v>5.6665206599503568E-2</v>
+        <v>5.6665206599503588E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,7 +1424,7 @@
         <v>14</v>
       </c>
       <c r="C77" s="1">
-        <v>0.18504129129129129</v>
+        <v>0.18504129129129121</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>0.2442142142142141</v>
+        <v>0.24421421421421419</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1446,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>0.4616088838160462</v>
+        <v>0.46160888381604648</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
         <v>7</v>
       </c>
       <c r="C81" s="1">
-        <v>0.20704478768753801</v>
+        <v>0.20704478768753809</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1512,7 +1512,7 @@
         <v>11</v>
       </c>
       <c r="C85" s="1">
-        <v>0.1129346904156065</v>
+        <v>0.1129346904156064</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1523,7 +1523,7 @@
         <v>12</v>
       </c>
       <c r="C86" s="1">
-        <v>9.2853835978835952E-2</v>
+        <v>9.2853835978835966E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="C89" s="1">
-        <v>8.3583690987124454E-2</v>
+        <v>8.3583690987124468E-2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="1">
-        <v>0.49358953957139812</v>
+        <v>0.49358953957139862</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1600,7 +1600,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="1">
-        <v>0.71201973001038421</v>
+        <v>0.71201973001038443</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1622,7 +1622,7 @@
         <v>10</v>
       </c>
       <c r="C95" s="1">
-        <v>8.9677640603566533E-2</v>
+        <v>8.9677640603566547E-2</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1644,7 +1644,7 @@
         <v>12</v>
       </c>
       <c r="C97" s="1">
-        <v>0.17053075396825401</v>
+        <v>0.1705307539682541</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1655,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="C98" s="1">
-        <v>0.25500826719576741</v>
+        <v>0.25500826719576719</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1710,7 +1710,7 @@
         <v>7</v>
       </c>
       <c r="C103" s="1">
-        <v>0.21411614845695079</v>
+        <v>0.21411614845695101</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1721,7 +1721,7 @@
         <v>8</v>
       </c>
       <c r="C104" s="1">
-        <v>0.14550942536590919</v>
+        <v>0.1455094253659093</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>11</v>
       </c>
       <c r="C107" s="1">
-        <v>0.1376455026455026</v>
+        <v>0.13764550264550271</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1765,7 +1765,7 @@
         <v>12</v>
       </c>
       <c r="C108" s="1">
-        <v>0.15604332010582009</v>
+        <v>0.1560433201058202</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="C109" s="1">
-        <v>0.23335648148148161</v>
+        <v>0.2333564814814815</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1809,7 +1809,7 @@
         <v>4</v>
       </c>
       <c r="C112" s="1">
-        <v>0.48858786476410832</v>
+        <v>0.48858786476410898</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="1">
-        <v>0.30975513428120061</v>
+        <v>0.30975513428120072</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="C115" s="1">
-        <v>0.35189393939393943</v>
+        <v>0.35189393939393931</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1853,7 +1853,7 @@
         <v>9</v>
       </c>
       <c r="C116" s="1">
-        <v>0.200254110612855</v>
+        <v>0.20025411061285489</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1864,7 +1864,7 @@
         <v>10</v>
       </c>
       <c r="C117" s="1">
-        <v>0.13659531963470331</v>
+        <v>0.1365953196347032</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>13</v>
       </c>
       <c r="C120" s="1">
-        <v>0.19408637152777769</v>
+        <v>0.1940863715277778</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1908,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="C121" s="1">
-        <v>0.59876299224125296</v>
+        <v>0.59876299224125284</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>4</v>
       </c>
       <c r="C123" s="1">
-        <v>0.46030742954739501</v>
+        <v>0.46030742954739517</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
         <v>7</v>
       </c>
       <c r="C125" s="1">
-        <v>0.2252217194570135</v>
+        <v>0.22522171945701339</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="C129" s="1">
-        <v>0.14652288419104559</v>
+        <v>0.1465228841910457</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>13</v>
       </c>
       <c r="C131" s="1">
-        <v>0.2265277777777778</v>
+        <v>0.22652777777777791</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2040,7 +2040,7 @@
         <v>15</v>
       </c>
       <c r="C133" s="1">
-        <v>0.1362470449172577</v>
+        <v>0.13624704491725759</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="C134" s="1">
-        <v>0.39007970395673208</v>
+        <v>0.39007970395673253</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2095,7 +2095,7 @@
         <v>9</v>
       </c>
       <c r="C138" s="1">
-        <v>0.2496810870770938</v>
+        <v>0.24968108707709369</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>13</v>
       </c>
       <c r="C142" s="1">
-        <v>0.31464238190286098</v>
+        <v>0.3146423819028612</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="C147" s="1">
-        <v>0.46500933310707659</v>
+        <v>0.46500933310707682</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2227,7 +2227,7 @@
         <v>8</v>
       </c>
       <c r="C150" s="1">
-        <v>0.22456111111111099</v>
+        <v>0.2245611111111111</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2238,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="C151" s="1">
-        <v>0.20827256153144941</v>
+        <v>0.2082725615314493</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2249,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="C152" s="1">
-        <v>0.2066178464876593</v>
+        <v>0.20661784648765941</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>14</v>
       </c>
       <c r="C156" s="1">
-        <v>0.14826745868555319</v>
+        <v>0.1482674586855533</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>30</v>
       </c>
       <c r="C159" s="1">
-        <v>0.39222222222222242</v>
+        <v>0.39222222222222208</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>4</v>
       </c>
       <c r="C160" s="1">
-        <v>0.39404560214598328</v>
+        <v>0.3940456021459835</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2359,7 +2359,7 @@
         <v>7</v>
       </c>
       <c r="C162" s="1">
-        <v>0.31927593715974478</v>
+        <v>0.31927593715974489</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
         <v>11</v>
       </c>
       <c r="C166" s="1">
-        <v>0.24033855573563839</v>
+        <v>0.2403385557356385</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>13</v>
       </c>
       <c r="C168" s="1">
-        <v>0.1244815346574141</v>
+        <v>0.124481534657414</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -2436,7 +2436,7 @@
         <v>14</v>
       </c>
       <c r="C169" s="1">
-        <v>0.1097551524655704</v>
+        <v>0.10975515246557049</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
         <v>29</v>
       </c>
       <c r="C171" s="1">
-        <v>0.31496368575705491</v>
+        <v>0.31496368575705469</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -2480,7 +2480,7 @@
         <v>4</v>
       </c>
       <c r="C173" s="1">
-        <v>0.4566469622331692</v>
+        <v>0.45664696223316942</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -2491,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="C174" s="1">
-        <v>0.39474833808167142</v>
+        <v>0.39474833808167148</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>8</v>
       </c>
       <c r="C176" s="1">
-        <v>0.23878504672897191</v>
+        <v>0.2387850467289718</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -2524,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="C177" s="1">
-        <v>0.22619153017559379</v>
+        <v>0.2261915301755939</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -2568,7 +2568,7 @@
         <v>13</v>
       </c>
       <c r="C181" s="1">
-        <v>0.31789186507936512</v>
+        <v>0.31789186507936518</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -2590,7 +2590,7 @@
         <v>15</v>
       </c>
       <c r="C183" s="1">
-        <v>0.1456798669686459</v>
+        <v>0.14567986696864579</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -2601,7 +2601,7 @@
         <v>29</v>
       </c>
       <c r="C184" s="1">
-        <v>0.135050505050505</v>
+        <v>0.13505050505050509</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -2612,7 +2612,7 @@
         <v>30</v>
       </c>
       <c r="C185" s="1">
-        <v>0.4866666666666668</v>
+        <v>0.48666666666666669</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>4</v>
       </c>
       <c r="C186" s="1">
-        <v>0.60400618580765653</v>
+        <v>0.6040061858076563</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>8</v>
       </c>
       <c r="C189" s="1">
-        <v>0.1801331040631767</v>
+        <v>0.18013310406317659</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>9</v>
       </c>
       <c r="C190" s="1">
-        <v>0.239611642341889</v>
+        <v>0.23961164234188889</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -2689,7 +2689,7 @@
         <v>11</v>
       </c>
       <c r="C192" s="1">
-        <v>0.48598799630655598</v>
+        <v>0.48598799630655581</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -2711,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="C194" s="1">
-        <v>0.20324900793650791</v>
+        <v>0.20324900793650799</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -2755,7 +2755,7 @@
         <v>30</v>
       </c>
       <c r="C198" s="1">
-        <v>0.49130979938271568</v>
+        <v>0.49130979938271602</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -2766,7 +2766,7 @@
         <v>4</v>
       </c>
       <c r="C199" s="1">
-        <v>0.51487641950567797</v>
+        <v>0.5148764195056782</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -2810,7 +2810,7 @@
         <v>9</v>
       </c>
       <c r="C203" s="1">
-        <v>0.141735918744229</v>
+        <v>0.14173591874422911</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="C207" s="1">
-        <v>0.14711805555555549</v>
+        <v>0.1471180555555556</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>29</v>
       </c>
       <c r="C212" s="1">
-        <v>0.30288238028823811</v>
+        <v>0.30288238028823788</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -2920,7 +2920,7 @@
         <v>30</v>
       </c>
       <c r="C213" s="1">
-        <v>0.39943479938271642</v>
+        <v>0.3994347993827162</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>4</v>
       </c>
       <c r="C214" s="1">
-        <v>0.44950875694147813</v>
+        <v>0.44950875694147818</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -2942,7 +2942,7 @@
         <v>6</v>
       </c>
       <c r="C215" s="1">
-        <v>0.44850427350427358</v>
+        <v>0.44850427350427341</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,7 +2964,7 @@
         <v>8</v>
       </c>
       <c r="C217" s="1">
-        <v>0.16298507462686571</v>
+        <v>0.16298507462686579</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +3008,7 @@
         <v>11</v>
       </c>
       <c r="C221" s="1">
-        <v>0.2278984788359788</v>
+        <v>0.22789847883597891</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3030,7 @@
         <v>13</v>
       </c>
       <c r="C223" s="1">
-        <v>0.27713293650793669</v>
+        <v>0.27713293650793652</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3041,7 @@
         <v>36</v>
       </c>
       <c r="C224" s="1">
-        <v>0.26121853729414712</v>
+        <v>0.26121853729414701</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3052,7 @@
         <v>14</v>
       </c>
       <c r="C225" s="1">
-        <v>0.12327092136212101</v>
+        <v>0.12327092136212089</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3063,7 @@
         <v>15</v>
       </c>
       <c r="C226" s="1">
-        <v>0.14835151941804531</v>
+        <v>0.1483515194180452</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,7 +3085,7 @@
         <v>30</v>
       </c>
       <c r="C228" s="1">
-        <v>0.43233061956671731</v>
+        <v>0.43233061956671709</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,7 +3096,7 @@
         <v>4</v>
       </c>
       <c r="C229" s="1">
-        <v>0.47904918833150262</v>
+        <v>0.47904918833150217</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
         <v>6</v>
       </c>
       <c r="C230" s="1">
-        <v>0.44434472934472963</v>
+        <v>0.44434472934472952</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3118,7 +3118,7 @@
         <v>7</v>
       </c>
       <c r="C231" s="1">
-        <v>0.19691400304413989</v>
+        <v>0.19691400304414</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3129,7 @@
         <v>8</v>
       </c>
       <c r="C232" s="1">
-        <v>0.18542194092826991</v>
+        <v>0.18542194092827019</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="C233" s="1">
-        <v>9.360655737704919E-2</v>
+        <v>9.3606557377049163E-2</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="C234" s="1">
-        <v>8.9513314967860413E-2</v>
+        <v>8.9513314967860386E-2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="C235" s="1">
-        <v>0.33751623640201339</v>
+        <v>0.33751623640201328</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>13</v>
       </c>
       <c r="C238" s="1">
-        <v>7.9689608636977063E-2</v>
+        <v>7.968960863697705E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3206,7 +3206,7 @@
         <v>36</v>
       </c>
       <c r="C239" s="1">
-        <v>0.2321970624235008</v>
+        <v>0.23219706242350061</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="C244" s="1">
-        <v>0.50176993962503991</v>
+        <v>0.50176993962504024</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -3294,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="C247" s="1">
-        <v>0.14910557860765319</v>
+        <v>0.14910557860765331</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3305,7 +3305,7 @@
         <v>9</v>
       </c>
       <c r="C248" s="1">
-        <v>0.19615533230293669</v>
+        <v>0.19615533230293661</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="C249" s="1">
-        <v>0.2094472105195965</v>
+        <v>0.20944721051959661</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>35</v>
       </c>
       <c r="C250" s="1">
-        <v>0.2030468025949955</v>
+        <v>0.20304680259499541</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3349,7 +3349,7 @@
         <v>12</v>
       </c>
       <c r="C252" s="1">
-        <v>0.1087502140044513</v>
+        <v>0.1087502140044514</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3360,7 +3360,7 @@
         <v>13</v>
       </c>
       <c r="C253" s="1">
-        <v>0.18882383153569579</v>
+        <v>0.1888238315356959</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3382,7 +3382,7 @@
         <v>14</v>
       </c>
       <c r="C255" s="1">
-        <v>0.26924374890321751</v>
+        <v>0.26924374890321762</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3415,7 +3415,7 @@
         <v>30</v>
       </c>
       <c r="C258" s="1">
-        <v>0.28662269148865122</v>
+        <v>0.28662269148865133</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3426,7 +3426,7 @@
         <v>4</v>
       </c>
       <c r="C259" s="1">
-        <v>0.49469975490196078</v>
+        <v>0.4946997549019605</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -3459,7 +3459,7 @@
         <v>8</v>
       </c>
       <c r="C262" s="1">
-        <v>0.28292005420054211</v>
+        <v>0.28292005420054178</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3470,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="C263" s="1">
-        <v>0.18760307079897631</v>
+        <v>0.18760307079897651</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
         <v>10</v>
       </c>
       <c r="C264" s="1">
-        <v>0.25088271281244529</v>
+        <v>0.25088271281244517</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>11</v>
       </c>
       <c r="C266" s="1">
-        <v>8.0336443313542547E-2</v>
+        <v>8.0336443313542533E-2</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="C267" s="1">
-        <v>8.3763616557734233E-2</v>
+        <v>8.3763616557734219E-2</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -3547,7 +3547,7 @@
         <v>14</v>
       </c>
       <c r="C270" s="1">
-        <v>0.187658917108836</v>
+        <v>0.18765891710883609</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,7 +3558,7 @@
         <v>15</v>
       </c>
       <c r="C271" s="1">
-        <v>0.25140441387216972</v>
+        <v>0.25140441387216961</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>30</v>
       </c>
       <c r="C273" s="1">
-        <v>0.27177083333333352</v>
+        <v>0.27177083333333329</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -3591,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="C274" s="1">
-        <v>0.42165385710219178</v>
+        <v>0.42165385710219172</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -3602,7 +3602,7 @@
         <v>6</v>
       </c>
       <c r="C275" s="1">
-        <v>0.38602564102564091</v>
+        <v>0.38602564102564102</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -3624,7 +3624,7 @@
         <v>8</v>
       </c>
       <c r="C277" s="1">
-        <v>0.21308844507845939</v>
+        <v>0.21308844507845931</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>35</v>
       </c>
       <c r="C280" s="1">
-        <v>0.31205017921146938</v>
+        <v>0.31205017921146949</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -3668,7 +3668,7 @@
         <v>11</v>
       </c>
       <c r="C281" s="1">
-        <v>0.2166732804232806</v>
+        <v>0.21667328042328049</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -3679,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="C282" s="1">
-        <v>0.14605820105820119</v>
+        <v>0.14605820105820111</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>15</v>
       </c>
       <c r="C286" s="1">
-        <v>0.15863387978142079</v>
+        <v>0.15863387978142071</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -3734,7 +3734,7 @@
         <v>29</v>
       </c>
       <c r="C287" s="1">
-        <v>0.33384113475177302</v>
+        <v>0.33384113475177291</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -3745,7 +3745,7 @@
         <v>30</v>
       </c>
       <c r="C288" s="1">
-        <v>0.20646466410525091</v>
+        <v>0.2064646641052508</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -3756,7 +3756,7 @@
         <v>4</v>
       </c>
       <c r="C289" s="1">
-        <v>0.43478861087144122</v>
+        <v>0.43478861087144111</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
         <v>7</v>
       </c>
       <c r="C291" s="1">
-        <v>0.13014995715509861</v>
+        <v>0.1301499571550985</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>10</v>
       </c>
       <c r="C294" s="1">
-        <v>0.22461472602739729</v>
+        <v>0.22461472602739721</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
         <v>11</v>
       </c>
       <c r="C296" s="1">
-        <v>0.22257562906417891</v>
+        <v>0.2225756290641788</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -3866,7 +3866,7 @@
         <v>36</v>
       </c>
       <c r="C299" s="1">
-        <v>0.3349203273040483</v>
+        <v>0.33492032730404842</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -3888,7 +3888,7 @@
         <v>15</v>
       </c>
       <c r="C301" s="1">
-        <v>0.221234420578096</v>
+        <v>0.22123442057809589</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -3899,7 +3899,7 @@
         <v>29</v>
       </c>
       <c r="C302" s="1">
-        <v>0.17368421052631569</v>
+        <v>0.1736842105263158</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -3910,7 +3910,7 @@
         <v>30</v>
       </c>
       <c r="C303" s="1">
-        <v>0.29033726942965199</v>
+        <v>0.29033726942965182</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -3921,7 +3921,7 @@
         <v>4</v>
       </c>
       <c r="C304" s="1">
-        <v>0.40686450839328542</v>
+        <v>0.40686450839328531</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -3932,7 +3932,7 @@
         <v>6</v>
       </c>
       <c r="C305" s="1">
-        <v>0.33450427350427381</v>
+        <v>0.33450427350427347</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -3943,7 +3943,7 @@
         <v>7</v>
       </c>
       <c r="C306" s="1">
-        <v>0.12519989615784019</v>
+        <v>0.12519989615784011</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -3965,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="C308" s="1">
-        <v>8.3866220056841245E-2</v>
+        <v>8.3866220056841287E-2</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -3976,7 +3976,7 @@
         <v>10</v>
       </c>
       <c r="C309" s="1">
-        <v>0.1760194127855341</v>
+        <v>0.17601941278553401</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -3998,7 +3998,7 @@
         <v>11</v>
       </c>
       <c r="C311" s="1">
-        <v>0.2002066798941799</v>
+        <v>0.20020667989418001</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -4009,7 +4009,7 @@
         <v>12</v>
       </c>
       <c r="C312" s="1">
-        <v>9.2955882865002296E-2</v>
+        <v>9.2955882865002323E-2</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -4020,7 +4020,7 @@
         <v>13</v>
       </c>
       <c r="C313" s="1">
-        <v>5.2068859039678859E-2</v>
+        <v>5.2068859039678873E-2</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -4075,7 +4075,7 @@
         <v>30</v>
       </c>
       <c r="C318" s="1">
-        <v>0.35423225308641959</v>
+        <v>0.35423225308641948</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -4097,7 +4097,7 @@
         <v>6</v>
       </c>
       <c r="C320" s="1">
-        <v>0.37861538461538469</v>
+        <v>0.37861538461538458</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>8</v>
       </c>
       <c r="C322" s="1">
-        <v>0.1459259259259259</v>
+        <v>0.14592592592592599</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -4130,7 +4130,7 @@
         <v>9</v>
       </c>
       <c r="C323" s="1">
-        <v>9.0874524714828903E-2</v>
+        <v>9.0874524714828875E-2</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
         <v>10</v>
       </c>
       <c r="C324" s="1">
-        <v>0.20162943696450439</v>
+        <v>0.2016294369645043</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>35</v>
       </c>
       <c r="C325" s="1">
-        <v>0.23355275187419999</v>
+        <v>0.2335527518742001</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -4163,7 +4163,7 @@
         <v>11</v>
       </c>
       <c r="C326" s="1">
-        <v>0.19800574647461361</v>
+        <v>0.19800574647461339</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -4185,7 +4185,7 @@
         <v>13</v>
       </c>
       <c r="C328" s="1">
-        <v>0.17569279100529109</v>
+        <v>0.175692791005291</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
@@ -4218,7 +4218,7 @@
         <v>15</v>
       </c>
       <c r="C331" s="1">
-        <v>0.17361764337572541</v>
+        <v>0.17361764337572549</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
         <v>29</v>
       </c>
       <c r="C332" s="1">
-        <v>0.26669135192956472</v>
+        <v>0.26669135192956461</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
@@ -4240,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="C333" s="1">
-        <v>0.32654312451021078</v>
+        <v>0.39638132116350899</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
@@ -4251,7 +4251,7 @@
         <v>4</v>
       </c>
       <c r="C334" s="1">
-        <v>0.62566226594184127</v>
+        <v>0.68565188172042968</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
@@ -4284,7 +4284,7 @@
         <v>8</v>
       </c>
       <c r="C337" s="1">
-        <v>0.19175516224188779</v>
+        <v>0.19367477058753421</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
@@ -4295,7 +4295,7 @@
         <v>9</v>
       </c>
       <c r="C338" s="1">
-        <v>0.18445481863060739</v>
+        <v>0.1856201738754793</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
         <v>10</v>
       </c>
       <c r="C339" s="1">
-        <v>0.19209777777777781</v>
+        <v>0.1920977777777777</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -4350,7 +4350,7 @@
         <v>13</v>
       </c>
       <c r="C343" s="1">
-        <v>0.14926256613756611</v>
+        <v>0.14926256613756619</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -4361,7 +4361,7 @@
         <v>36</v>
       </c>
       <c r="C344" s="1">
-        <v>0.27623769730733511</v>
+        <v>0.27623769730733522</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -4372,7 +4372,7 @@
         <v>14</v>
       </c>
       <c r="C345" s="1">
-        <v>0.18284639482813389</v>
+        <v>0.18284639482813381</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
@@ -4415,8 +4415,8 @@
       <c r="B349" t="s">
         <v>4</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>5</v>
+      <c r="C349" s="1">
+        <v>0.53619915076751201</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
@@ -4426,8 +4426,8 @@
       <c r="B350" t="s">
         <v>6</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>5</v>
+      <c r="C350" s="1">
+        <v>0.69314506421595845</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
@@ -4437,8 +4437,8 @@
       <c r="B351" t="s">
         <v>7</v>
       </c>
-      <c r="C351" s="1" t="s">
-        <v>5</v>
+      <c r="C351" s="1">
+        <v>0.1360784570744234</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
@@ -4448,8 +4448,8 @@
       <c r="B352" t="s">
         <v>8</v>
       </c>
-      <c r="C352" s="1" t="s">
-        <v>5</v>
+      <c r="C352" s="1">
+        <v>0.23280429367741051</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
@@ -4459,8 +4459,8 @@
       <c r="B353" t="s">
         <v>9</v>
       </c>
-      <c r="C353" s="1" t="s">
-        <v>5</v>
+      <c r="C353" s="1">
+        <v>5.2853740552611703E-2</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
@@ -4481,8 +4481,8 @@
       <c r="B355" t="s">
         <v>35</v>
       </c>
-      <c r="C355" s="1" t="s">
-        <v>5</v>
+      <c r="C355" s="1">
+        <v>0.24364599227010689</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
@@ -4504,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="C357" s="1">
-        <v>0.13154589371980671</v>
+        <v>0.11662310836561821</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>13</v>
       </c>
       <c r="C358" s="1">
-        <v>0.3572946859903382</v>
+        <v>0.21341951250260621</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -4525,8 +4525,8 @@
       <c r="B359" t="s">
         <v>36</v>
       </c>
-      <c r="C359" s="1" t="s">
-        <v>5</v>
+      <c r="C359" s="1">
+        <v>0.2286241248201889</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -4537,7 +4537,7 @@
         <v>14</v>
       </c>
       <c r="C360" s="1">
-        <v>0.96561041513141721</v>
+        <v>0.14660900868265839</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -4547,13 +4547,13 @@
       <c r="B361" t="s">
         <v>15</v>
       </c>
-      <c r="C361" s="1">
-        <v>0.96561041513141721</v>
+      <c r="C361" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4790,13 +4790,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACD9B4B8-ACEE-405C-B790-3611856EFE92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C18B5D7E-2EA1-4C4F-BC33-BF73B4F1F56E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E03117D-63C4-4789-BBC9-2BD373C3E582}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8B1E97-213E-4293-A778-B55432206B71}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED5C6A1A-D8A6-43E2-8A63-EBCD47F0FE19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A314C0-DE1E-4D5B-80AE-412634423B01}"/>
 </file>
--- a/Race Dashboard data/unplanned_tech_loss.xlsx
+++ b/Race Dashboard data/unplanned_tech_loss.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sanofi.sharepoint.com/sites/SanofixMcLarensharing/Shared Documents/General/Race Dashboard data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC761A72-3438-4567-947A-9E8038C61A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="13965" windowHeight="7590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="48">
   <si>
     <t>Week</t>
   </si>
@@ -161,16 +155,19 @@
   </si>
   <si>
     <t>W27-2021</t>
+  </si>
+  <si>
+    <t>W28-2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,14 +235,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -292,7 +281,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,27 +313,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -376,24 +347,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -569,18 +522,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C361"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -602,7 +556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -613,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -624,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -635,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -646,7 +600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -657,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -668,7 +622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -679,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -690,7 +644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -701,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -712,7 +666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -720,10 +674,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>0.65344179690836146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6534417969083609</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -734,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -742,10 +696,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <v>0.29081871345029242</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2908187134502923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -756,7 +710,7 @@
         <v>0.2904771241830067</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -764,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="1">
-        <v>0.22841642228739001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.22841642228739</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -775,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>0.1019536782471048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1019536782471049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -789,7 +743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -797,10 +751,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>8.2620571521162936E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08262057152116294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -811,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -819,10 +773,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="1">
-        <v>0.19630942999737319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1963094299973732</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -830,10 +784,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="1">
-        <v>0.61332996956843944</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6133299695684397</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -841,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>0.44775120979220079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4477512097922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -855,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -863,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="1">
-        <v>0.24721358664363829</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2472135866436383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -874,10 +828,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="1">
-        <v>0.23270963891375709</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2327096389137571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>17</v>
       </c>
@@ -885,10 +839,10 @@
         <v>9</v>
       </c>
       <c r="C28" s="1">
-        <v>0.20915211062590969</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2091521106259098</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -896,10 +850,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="1">
-        <v>0.15585864543399189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.155858645433992</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -910,7 +864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -921,7 +875,7 @@
         <v>0.1068568619473827</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -929,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="C32" s="1">
-        <v>0.30212632275132267</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3021263227513229</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -943,7 +897,7 @@
         <v>0.1592463977158777</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -951,10 +905,10 @@
         <v>15</v>
       </c>
       <c r="C34" s="1">
-        <v>0.28137387387387391</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.281373873873874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -962,10 +916,10 @@
         <v>4</v>
       </c>
       <c r="C35" s="1">
-        <v>0.39846929251446711</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3984692925144671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
@@ -976,7 +930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
@@ -984,10 +938,10 @@
         <v>7</v>
       </c>
       <c r="C37" s="1">
-        <v>0.1802639656230817</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1802639656230818</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -995,10 +949,10 @@
         <v>8</v>
       </c>
       <c r="C38" s="1">
-        <v>0.17294359576968271</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1729435957696827</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1009,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1017,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>0.18401369619352551</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1840136961935254</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -1031,7 +985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1039,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="C42" s="1">
-        <v>0.1453373015873016</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1453373015873017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1050,10 +1004,10 @@
         <v>13</v>
       </c>
       <c r="C43" s="1">
-        <v>0.25057043650793659</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2505704365079365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -1061,10 +1015,10 @@
         <v>14</v>
       </c>
       <c r="C44" s="1">
-        <v>0.20660779768818369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2066077976881837</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>18</v>
       </c>
@@ -1072,10 +1026,10 @@
         <v>15</v>
       </c>
       <c r="C45" s="1">
-        <v>0.20815239551478079</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2081523955147808</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1083,10 +1037,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="1">
-        <v>0.46372615997722832</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4637261599772274</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1105,10 +1059,10 @@
         <v>7</v>
       </c>
       <c r="C48" s="1">
-        <v>0.25215149209569698</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2521514920956968</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1116,10 +1070,10 @@
         <v>8</v>
       </c>
       <c r="C49" s="1">
-        <v>0.23672764227642279</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2367276422764227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -1127,10 +1081,10 @@
         <v>9</v>
       </c>
       <c r="C50" s="1">
-        <v>0.17322197950735591</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1732219795073558</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -1138,10 +1092,10 @@
         <v>10</v>
       </c>
       <c r="C51" s="1">
-        <v>0.1138550822627902</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1138550822627901</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -1149,10 +1103,10 @@
         <v>11</v>
       </c>
       <c r="C52" s="1">
-        <v>0.2401128472222222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2401128472222223</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1163,7 +1117,7 @@
         <v>0.155749800863623</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1171,10 +1125,10 @@
         <v>13</v>
       </c>
       <c r="C54" s="1">
-        <v>0.33892030423280423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3389203042328043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1139,7 @@
         <v>0.2392226553542765</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1193,10 +1147,10 @@
         <v>15</v>
       </c>
       <c r="C56" s="1">
-        <v>0.22077786833288049</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2207778683328806</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1204,10 +1158,10 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>0.59078423000284686</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5907842300028467</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1218,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1229,7 +1183,7 @@
         <v>0.179025641025641</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1237,10 +1191,10 @@
         <v>8</v>
       </c>
       <c r="C60" s="1">
-        <v>0.22799474030243261</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2279947403024326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1248,10 +1202,10 @@
         <v>9</v>
       </c>
       <c r="C61" s="1">
-        <v>0.18200767050191771</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1820076705019177</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1259,10 +1213,10 @@
         <v>10</v>
       </c>
       <c r="C62" s="1">
-        <v>0.14949928469241769</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1494992846924177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1227,7 @@
         <v>0.2474702380952381</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1238,7 @@
         <v>0.1096296296296296</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1292,10 +1246,10 @@
         <v>13</v>
       </c>
       <c r="C65" s="1">
-        <v>0.22455156136528701</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2245515613652869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1303,10 +1257,10 @@
         <v>14</v>
       </c>
       <c r="C66" s="1">
-        <v>0.22027027027027021</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2202702702702702</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1314,10 +1268,10 @@
         <v>15</v>
       </c>
       <c r="C67" s="1">
-        <v>0.34251751751751752</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3425175175175175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
         <v>21</v>
       </c>
@@ -1325,10 +1279,10 @@
         <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>0.45805573350416379</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.458055733504164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -1339,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -1347,10 +1301,10 @@
         <v>7</v>
       </c>
       <c r="C70" s="1">
-        <v>0.18376906318082781</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1837690631808278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -1358,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="1">
-        <v>0.21033771929824549</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2103377192982457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -1369,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="C72" s="1">
-        <v>6.8059680384669752E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06805968038466975</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1337,7 @@
         <v>0.1917038027332145</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -1391,10 +1345,10 @@
         <v>11</v>
       </c>
       <c r="C74" s="1">
-        <v>0.1534275192975002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1534275192975001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -1402,10 +1356,10 @@
         <v>12</v>
       </c>
       <c r="C75" s="1">
-        <v>9.3695436507936533E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09369543650793651</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -1413,10 +1367,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="1">
-        <v>5.6665206599503588E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05666520659950356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -1424,10 +1378,10 @@
         <v>14</v>
       </c>
       <c r="C77" s="1">
-        <v>0.18504129129129121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1850412912912912</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -1435,10 +1389,10 @@
         <v>15</v>
       </c>
       <c r="C78" s="1">
-        <v>0.24421421421421419</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2442142142142142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -1446,10 +1400,10 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>0.46160888381604648</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.461608883816046</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -1468,10 +1422,10 @@
         <v>7</v>
       </c>
       <c r="C81" s="1">
-        <v>0.20704478768753809</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.207044787687538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -1479,10 +1433,10 @@
         <v>8</v>
       </c>
       <c r="C82" s="1">
-        <v>0.52904868078781098</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5290486807878112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -1490,10 +1444,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="1">
-        <v>0.20529890390693301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.205298903906933</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -1504,7 +1458,7 @@
         <v>0.1980908152734778</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -1512,10 +1466,10 @@
         <v>11</v>
       </c>
       <c r="C85" s="1">
-        <v>0.1129346904156064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1129346904156065</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -1523,10 +1477,10 @@
         <v>12</v>
       </c>
       <c r="C86" s="1">
-        <v>9.2853835978835966E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09285383597883597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -1534,10 +1488,10 @@
         <v>13</v>
       </c>
       <c r="C87" s="1">
-        <v>0.24093419312169309</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2409341931216931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -1545,10 +1499,10 @@
         <v>14</v>
       </c>
       <c r="C88" s="1">
-        <v>0.13194832402234641</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1319483240223464</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -1556,10 +1510,10 @@
         <v>15</v>
       </c>
       <c r="C89" s="1">
-        <v>8.3583690987124468E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08358369098712448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -1567,10 +1521,10 @@
         <v>4</v>
       </c>
       <c r="C90" s="1">
-        <v>0.49358953957139862</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4935895395713985</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -1581,7 +1535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -1589,10 +1543,10 @@
         <v>7</v>
       </c>
       <c r="C92" s="1">
-        <v>0.19104868913857681</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1910486891385768</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -1600,10 +1554,10 @@
         <v>8</v>
       </c>
       <c r="C93" s="1">
-        <v>0.71201973001038443</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.7120197300103844</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -1611,10 +1565,10 @@
         <v>9</v>
       </c>
       <c r="C94" s="1">
-        <v>0.19280442804428041</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1928044280442805</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -1622,10 +1576,10 @@
         <v>10</v>
       </c>
       <c r="C95" s="1">
-        <v>8.9677640603566547E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08967764060356656</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
         <v>23</v>
       </c>
@@ -1633,10 +1587,10 @@
         <v>11</v>
       </c>
       <c r="C96" s="1">
-        <v>0.28544921875000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.28544921875</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -1644,10 +1598,10 @@
         <v>12</v>
       </c>
       <c r="C97" s="1">
-        <v>0.1705307539682541</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.170530753968254</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -1655,10 +1609,10 @@
         <v>13</v>
       </c>
       <c r="C98" s="1">
-        <v>0.25500826719576719</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2550082671957672</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -1669,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -1680,7 +1634,7 @@
         <v>0.1123742928975487</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -1688,10 +1642,10 @@
         <v>4</v>
       </c>
       <c r="C101" s="1">
-        <v>0.40702203997949782</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4070220399794978</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -1702,7 +1656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -1710,10 +1664,10 @@
         <v>7</v>
       </c>
       <c r="C103" s="1">
-        <v>0.21411614845695101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2141161484569509</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -1724,7 +1678,7 @@
         <v>0.1455094253659093</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -1732,10 +1686,10 @@
         <v>9</v>
       </c>
       <c r="C105" s="1">
-        <v>0.18903460837887059</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1890346083788706</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -1743,10 +1697,10 @@
         <v>10</v>
       </c>
       <c r="C106" s="1">
-        <v>0.17292708607528301</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.172927086075283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -1754,10 +1708,10 @@
         <v>11</v>
       </c>
       <c r="C107" s="1">
-        <v>0.13764550264550271</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1376455026455026</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -1765,10 +1719,10 @@
         <v>12</v>
       </c>
       <c r="C108" s="1">
-        <v>0.1560433201058202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1560433201058201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -1776,10 +1730,10 @@
         <v>13</v>
       </c>
       <c r="C109" s="1">
-        <v>0.2333564814814815</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2333564814814816</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
         <v>24</v>
       </c>
@@ -1798,10 +1752,10 @@
         <v>15</v>
       </c>
       <c r="C111" s="1">
-        <v>8.9034943586373066E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08903494358637307</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -1809,10 +1763,10 @@
         <v>4</v>
       </c>
       <c r="C112" s="1">
-        <v>0.48858786476410898</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4885878647641085</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -1823,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -1831,10 +1785,10 @@
         <v>7</v>
       </c>
       <c r="C114" s="1">
-        <v>0.30975513428120072</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3097551342812006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -1842,10 +1796,10 @@
         <v>8</v>
       </c>
       <c r="C115" s="1">
-        <v>0.35189393939393931</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3518939393939395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -1853,10 +1807,10 @@
         <v>9</v>
       </c>
       <c r="C116" s="1">
-        <v>0.20025411061285489</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2002541106128549</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -1864,10 +1818,10 @@
         <v>10</v>
       </c>
       <c r="C117" s="1">
-        <v>0.1365953196347032</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1365953196347033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -1875,10 +1829,10 @@
         <v>11</v>
       </c>
       <c r="C118" s="1">
-        <v>0.21436414930555561</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2143641493055556</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -1886,10 +1840,10 @@
         <v>12</v>
       </c>
       <c r="C119" s="1">
-        <v>3.4242424242424227E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.03424242424242423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -1900,7 +1854,7 @@
         <v>0.1940863715277778</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -1908,10 +1862,10 @@
         <v>14</v>
       </c>
       <c r="C121" s="1">
-        <v>0.59876299224125284</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.598762992241253</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -1919,10 +1873,10 @@
         <v>15</v>
       </c>
       <c r="C122" s="1">
-        <v>0.30901538641549159</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3090153864154918</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
         <v>26</v>
       </c>
@@ -1930,10 +1884,10 @@
         <v>4</v>
       </c>
       <c r="C123" s="1">
-        <v>0.46030742954739517</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4603074295473953</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
         <v>26</v>
       </c>
@@ -1944,7 +1898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
         <v>26</v>
       </c>
@@ -1952,10 +1906,10 @@
         <v>7</v>
       </c>
       <c r="C125" s="1">
-        <v>0.22522171945701339</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2252217194570134</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
         <v>26</v>
       </c>
@@ -1966,7 +1920,7 @@
         <v>0.2255861906445151</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -1977,7 +1931,7 @@
         <v>0.175800501696916</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
         <v>26</v>
       </c>
@@ -1985,10 +1939,10 @@
         <v>10</v>
       </c>
       <c r="C128" s="1">
-        <v>0.18224265190457359</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1822426519045736</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +1953,7 @@
         <v>0.1465228841910457</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>26</v>
       </c>
@@ -2010,7 +1964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>26</v>
       </c>
@@ -2018,10 +1972,10 @@
         <v>13</v>
       </c>
       <c r="C131" s="1">
-        <v>0.22652777777777791</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2265277777777778</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -2032,7 +1986,7 @@
         <v>0.3641099392777245</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -2040,10 +1994,10 @@
         <v>15</v>
       </c>
       <c r="C133" s="1">
-        <v>0.13624704491725759</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1362470449172577</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
         <v>27</v>
       </c>
@@ -2051,10 +2005,10 @@
         <v>4</v>
       </c>
       <c r="C134" s="1">
-        <v>0.39007970395673253</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3900797039567324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
         <v>27</v>
       </c>
@@ -2073,10 +2027,10 @@
         <v>7</v>
       </c>
       <c r="C136" s="1">
-        <v>0.25492519914513312</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.254925199145133</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -2084,10 +2038,10 @@
         <v>8</v>
       </c>
       <c r="C137" s="1">
-        <v>0.19048354844573709</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1904835484457372</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
         <v>27</v>
       </c>
@@ -2095,10 +2049,10 @@
         <v>9</v>
       </c>
       <c r="C138" s="1">
-        <v>0.24968108707709369</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2496810870770936</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
         <v>27</v>
       </c>
@@ -2106,10 +2060,10 @@
         <v>10</v>
       </c>
       <c r="C139" s="1">
-        <v>7.4999999999999983E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07499999999999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
         <v>27</v>
       </c>
@@ -2120,7 +2074,7 @@
         <v>0.1501463739188291</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
         <v>27</v>
       </c>
@@ -2139,10 +2093,10 @@
         <v>13</v>
       </c>
       <c r="C142" s="1">
-        <v>0.3146423819028612</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3146423819028609</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
         <v>27</v>
       </c>
@@ -2153,7 +2107,7 @@
         <v>0.1574348524144745</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
         <v>27</v>
       </c>
@@ -2161,10 +2115,10 @@
         <v>15</v>
       </c>
       <c r="C144" s="1">
-        <v>0.18117832186483171</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1811783218648317</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
         <v>28</v>
       </c>
@@ -2175,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
         <v>28</v>
       </c>
@@ -2183,10 +2137,10 @@
         <v>30</v>
       </c>
       <c r="C146" s="1">
-        <v>0.34285108024691358</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3428510802469136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -2194,10 +2148,10 @@
         <v>4</v>
       </c>
       <c r="C147" s="1">
-        <v>0.46500933310707682</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4650093331070762</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
         <v>28</v>
       </c>
@@ -2205,10 +2159,10 @@
         <v>6</v>
       </c>
       <c r="C148" s="1">
-        <v>0.22929745889387149</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2292974588938715</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
         <v>28</v>
       </c>
@@ -2216,10 +2170,10 @@
         <v>7</v>
       </c>
       <c r="C149" s="1">
-        <v>0.29138888888888881</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2913888888888888</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
         <v>28</v>
       </c>
@@ -2227,10 +2181,10 @@
         <v>8</v>
       </c>
       <c r="C150" s="1">
-        <v>0.2245611111111111</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.224561111111111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
         <v>28</v>
       </c>
@@ -2238,10 +2192,10 @@
         <v>9</v>
       </c>
       <c r="C151" s="1">
-        <v>0.2082725615314493</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2082725615314494</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
         <v>28</v>
       </c>
@@ -2249,10 +2203,10 @@
         <v>10</v>
       </c>
       <c r="C152" s="1">
-        <v>0.20661784648765941</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2066178464876594</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
         <v>28</v>
       </c>
@@ -2263,7 +2217,7 @@
         <v>0.1148175182481752</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>28</v>
       </c>
@@ -2274,7 +2228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
         <v>28</v>
       </c>
@@ -2282,10 +2236,10 @@
         <v>13</v>
       </c>
       <c r="C155" s="1">
-        <v>0.23463458994709011</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2346345899470901</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
         <v>28</v>
       </c>
@@ -2293,10 +2247,10 @@
         <v>14</v>
       </c>
       <c r="C156" s="1">
-        <v>0.1482674586855533</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1482674586855532</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
         <v>28</v>
       </c>
@@ -2304,10 +2258,10 @@
         <v>15</v>
       </c>
       <c r="C157" s="1">
-        <v>0.16357343716201589</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1635734371620159</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
         <v>31</v>
       </c>
@@ -2318,7 +2272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
         <v>31</v>
       </c>
@@ -2326,10 +2280,10 @@
         <v>30</v>
       </c>
       <c r="C159" s="1">
-        <v>0.39222222222222208</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3922222222222222</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
         <v>31</v>
       </c>
@@ -2337,10 +2291,10 @@
         <v>4</v>
       </c>
       <c r="C160" s="1">
-        <v>0.3940456021459835</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3940456021459834</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
         <v>31</v>
       </c>
@@ -2348,10 +2302,10 @@
         <v>6</v>
       </c>
       <c r="C161" s="1">
-        <v>0.22233459755583651</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2223345975558364</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -2359,10 +2313,10 @@
         <v>7</v>
       </c>
       <c r="C162" s="1">
-        <v>0.31927593715974489</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3192759371597448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
         <v>31</v>
       </c>
@@ -2370,10 +2324,10 @@
         <v>8</v>
       </c>
       <c r="C163" s="1">
-        <v>0.26408227848101268</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2640822784810126</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
         <v>31</v>
       </c>
@@ -2381,10 +2335,10 @@
         <v>9</v>
       </c>
       <c r="C164" s="1">
-        <v>0.26533690316822839</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2653369031682285</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>31</v>
       </c>
@@ -2395,7 +2349,7 @@
         <v>0.2113182859012103</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
         <v>31</v>
       </c>
@@ -2403,10 +2357,10 @@
         <v>11</v>
       </c>
       <c r="C166" s="1">
-        <v>0.2403385557356385</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2403385557356384</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
         <v>31</v>
       </c>
@@ -2417,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
         <v>31</v>
       </c>
@@ -2425,10 +2379,10 @@
         <v>13</v>
       </c>
       <c r="C168" s="1">
-        <v>0.124481534657414</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1244815346574141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
         <v>31</v>
       </c>
@@ -2436,10 +2390,10 @@
         <v>14</v>
       </c>
       <c r="C169" s="1">
-        <v>0.10975515246557049</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1097551524655704</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
         <v>31</v>
       </c>
@@ -2450,7 +2404,7 @@
         <v>0.1271620626892892</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
         <v>32</v>
       </c>
@@ -2458,10 +2412,10 @@
         <v>29</v>
       </c>
       <c r="C171" s="1">
-        <v>0.31496368575705469</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3149636857570549</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
         <v>32</v>
       </c>
@@ -2469,10 +2423,10 @@
         <v>30</v>
       </c>
       <c r="C172" s="1">
-        <v>0.51608603395061725</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5160860339506171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
         <v>32</v>
       </c>
@@ -2480,10 +2434,10 @@
         <v>4</v>
       </c>
       <c r="C173" s="1">
-        <v>0.45664696223316942</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4566469622331694</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
         <v>32</v>
       </c>
@@ -2491,10 +2445,10 @@
         <v>6</v>
       </c>
       <c r="C174" s="1">
-        <v>0.39474833808167148</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3947483380816715</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -2505,7 +2459,7 @@
         <v>0.1388373804267844</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
         <v>32</v>
       </c>
@@ -2516,7 +2470,7 @@
         <v>0.2387850467289718</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>32</v>
       </c>
@@ -2524,10 +2478,10 @@
         <v>9</v>
       </c>
       <c r="C177" s="1">
-        <v>0.2261915301755939</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2261915301755938</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>32</v>
       </c>
@@ -2535,10 +2489,10 @@
         <v>10</v>
       </c>
       <c r="C178" s="1">
-        <v>0.15229223744292239</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1522922374429224</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>32</v>
       </c>
@@ -2546,10 +2500,10 @@
         <v>11</v>
       </c>
       <c r="C179" s="1">
-        <v>6.9672873028187213E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.06967287302818721</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>32</v>
       </c>
@@ -2560,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -2568,10 +2522,10 @@
         <v>13</v>
       </c>
       <c r="C181" s="1">
-        <v>0.31789186507936518</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3178918650793651</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>32</v>
       </c>
@@ -2579,10 +2533,10 @@
         <v>14</v>
       </c>
       <c r="C182" s="1">
-        <v>8.877596771782989E-2</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08877596771782989</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>32</v>
       </c>
@@ -2590,10 +2544,10 @@
         <v>15</v>
       </c>
       <c r="C183" s="1">
-        <v>0.14567986696864579</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1456798669686458</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>33</v>
       </c>
@@ -2601,10 +2555,10 @@
         <v>29</v>
       </c>
       <c r="C184" s="1">
-        <v>0.13505050505050509</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1350505050505051</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -2612,10 +2566,10 @@
         <v>30</v>
       </c>
       <c r="C185" s="1">
-        <v>0.48666666666666669</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4866666666666666</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>33</v>
       </c>
@@ -2623,10 +2577,10 @@
         <v>4</v>
       </c>
       <c r="C186" s="1">
-        <v>0.6040061858076563</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6040061858076562</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>33</v>
       </c>
@@ -2634,10 +2588,10 @@
         <v>6</v>
       </c>
       <c r="C187" s="1">
-        <v>0.39302681992337168</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3930268199233718</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -2648,7 +2602,7 @@
         <v>0.2006691760769552</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>33</v>
       </c>
@@ -2656,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="C189" s="1">
-        <v>0.18013310406317659</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1801331040631766</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>33</v>
       </c>
@@ -2667,10 +2621,10 @@
         <v>9</v>
       </c>
       <c r="C190" s="1">
-        <v>0.23961164234188889</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2396116423418889</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>33</v>
       </c>
@@ -2678,10 +2632,10 @@
         <v>10</v>
       </c>
       <c r="C191" s="1">
-        <v>0.13369385609133241</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1336938560913324</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>33</v>
       </c>
@@ -2689,10 +2643,10 @@
         <v>11</v>
       </c>
       <c r="C192" s="1">
-        <v>0.48598799630655581</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4859879963065558</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
         <v>33</v>
       </c>
@@ -2703,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
         <v>33</v>
       </c>
@@ -2711,10 +2665,10 @@
         <v>13</v>
       </c>
       <c r="C194" s="1">
-        <v>0.20324900793650799</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.203249007936508</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
         <v>33</v>
       </c>
@@ -2722,10 +2676,10 @@
         <v>14</v>
       </c>
       <c r="C195" s="1">
-        <v>0.15347539320142059</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1534753932014206</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -2733,10 +2687,10 @@
         <v>15</v>
       </c>
       <c r="C196" s="1">
-        <v>0.21764203852718839</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2176420385271884</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
         <v>34</v>
       </c>
@@ -2744,10 +2698,10 @@
         <v>29</v>
       </c>
       <c r="C197" s="1">
-        <v>0.28063772048846669</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2806377204884668</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
         <v>34</v>
       </c>
@@ -2755,10 +2709,10 @@
         <v>30</v>
       </c>
       <c r="C198" s="1">
-        <v>0.49130979938271602</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4913097993827161</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
         <v>34</v>
       </c>
@@ -2769,7 +2723,7 @@
         <v>0.5148764195056782</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
         <v>34</v>
       </c>
@@ -2777,10 +2731,10 @@
         <v>6</v>
       </c>
       <c r="C200" s="1">
-        <v>0.38013409961685818</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3801340996168582</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
         <v>34</v>
       </c>
@@ -2788,10 +2742,10 @@
         <v>7</v>
       </c>
       <c r="C201" s="1">
-        <v>0.17987382987382991</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1798738298738299</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" t="s">
         <v>34</v>
       </c>
@@ -2799,10 +2753,10 @@
         <v>8</v>
       </c>
       <c r="C202" s="1">
-        <v>0.16404002501563469</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1640400250156347</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" t="s">
         <v>34</v>
       </c>
@@ -2810,10 +2764,10 @@
         <v>9</v>
       </c>
       <c r="C203" s="1">
-        <v>0.14173591874422911</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.141735918744229</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" t="s">
         <v>34</v>
       </c>
@@ -2821,10 +2775,10 @@
         <v>10</v>
       </c>
       <c r="C204" s="1">
-        <v>0.1524096936442616</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1524096936442615</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" t="s">
         <v>34</v>
       </c>
@@ -2835,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3">
       <c r="A206" t="s">
         <v>34</v>
       </c>
@@ -2843,10 +2797,10 @@
         <v>11</v>
       </c>
       <c r="C206" s="1">
-        <v>0.31151124338624347</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3115112433862435</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" t="s">
         <v>34</v>
       </c>
@@ -2854,10 +2808,10 @@
         <v>12</v>
       </c>
       <c r="C207" s="1">
-        <v>0.1471180555555556</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1471180555555555</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" t="s">
         <v>34</v>
       </c>
@@ -2865,10 +2819,10 @@
         <v>13</v>
       </c>
       <c r="C208" s="1">
-        <v>0.19481812169312179</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1948181216931217</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" t="s">
         <v>34</v>
       </c>
@@ -2879,7 +2833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -2890,7 +2844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3">
       <c r="A211" t="s">
         <v>34</v>
       </c>
@@ -2898,10 +2852,10 @@
         <v>15</v>
       </c>
       <c r="C211" s="1">
-        <v>0.20396128338411901</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.203961283384119</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" t="s">
         <v>37</v>
       </c>
@@ -2909,10 +2863,10 @@
         <v>29</v>
       </c>
       <c r="C212" s="1">
-        <v>0.30288238028823788</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.302882380288238</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" t="s">
         <v>37</v>
       </c>
@@ -2920,10 +2874,10 @@
         <v>30</v>
       </c>
       <c r="C213" s="1">
-        <v>0.3994347993827162</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3994347993827161</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" t="s">
         <v>37</v>
       </c>
@@ -2931,10 +2885,10 @@
         <v>4</v>
       </c>
       <c r="C214" s="1">
-        <v>0.44950875694147818</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4495087569414781</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" t="s">
         <v>37</v>
       </c>
@@ -2942,10 +2896,10 @@
         <v>6</v>
       </c>
       <c r="C215" s="1">
-        <v>0.44850427350427341</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4485042735042735</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" t="s">
         <v>37</v>
       </c>
@@ -2953,10 +2907,10 @@
         <v>7</v>
       </c>
       <c r="C216" s="1">
-        <v>0.16392765593847899</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.163927655938479</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" t="s">
         <v>37</v>
       </c>
@@ -2964,10 +2918,10 @@
         <v>8</v>
       </c>
       <c r="C217" s="1">
-        <v>0.16298507462686579</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1629850746268657</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" t="s">
         <v>37</v>
       </c>
@@ -2975,10 +2929,10 @@
         <v>9</v>
       </c>
       <c r="C218" s="1">
-        <v>0.14395801331285199</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.143958013312852</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" t="s">
         <v>37</v>
       </c>
@@ -2989,7 +2943,7 @@
         <v>0.1076056338028169</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3">
       <c r="A220" t="s">
         <v>37</v>
       </c>
@@ -3000,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3">
       <c r="A221" t="s">
         <v>37</v>
       </c>
@@ -3008,10 +2962,10 @@
         <v>11</v>
       </c>
       <c r="C221" s="1">
-        <v>0.22789847883597891</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2278984788359788</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
       <c r="A222" t="s">
         <v>37</v>
       </c>
@@ -3019,10 +2973,10 @@
         <v>12</v>
       </c>
       <c r="C222" s="1">
-        <v>0.16079853555762799</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.160798535557628</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" t="s">
         <v>37</v>
       </c>
@@ -3030,10 +2984,10 @@
         <v>13</v>
       </c>
       <c r="C223" s="1">
-        <v>0.27713293650793652</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2771329365079367</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" t="s">
         <v>37</v>
       </c>
@@ -3041,10 +2995,10 @@
         <v>36</v>
       </c>
       <c r="C224" s="1">
-        <v>0.26121853729414701</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2612185372941469</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>37</v>
       </c>
@@ -3052,10 +3006,10 @@
         <v>14</v>
       </c>
       <c r="C225" s="1">
-        <v>0.12327092136212089</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.123270921362121</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>37</v>
       </c>
@@ -3066,7 +3020,7 @@
         <v>0.1483515194180452</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>38</v>
       </c>
@@ -3074,10 +3028,10 @@
         <v>29</v>
       </c>
       <c r="C227" s="1">
-        <v>0.23067260940032419</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2306726094003242</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>38</v>
       </c>
@@ -3085,10 +3039,10 @@
         <v>30</v>
       </c>
       <c r="C228" s="1">
-        <v>0.43233061956671709</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4323306195667172</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>38</v>
       </c>
@@ -3096,10 +3050,10 @@
         <v>4</v>
       </c>
       <c r="C229" s="1">
-        <v>0.47904918833150217</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4790491883315023</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>38</v>
       </c>
@@ -3107,10 +3061,10 @@
         <v>6</v>
       </c>
       <c r="C230" s="1">
-        <v>0.44434472934472952</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4443447293447293</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>38</v>
       </c>
@@ -3118,10 +3072,10 @@
         <v>7</v>
       </c>
       <c r="C231" s="1">
-        <v>0.19691400304414</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1969140030441401</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>38</v>
       </c>
@@ -3129,10 +3083,10 @@
         <v>8</v>
       </c>
       <c r="C232" s="1">
-        <v>0.18542194092827019</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.18542194092827</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>38</v>
       </c>
@@ -3140,10 +3094,10 @@
         <v>9</v>
       </c>
       <c r="C233" s="1">
-        <v>9.3606557377049163E-2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09360655737704919</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>38</v>
       </c>
@@ -3151,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="C234" s="1">
-        <v>8.9513314967860386E-2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.0895133149678604</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>38</v>
       </c>
@@ -3162,10 +3116,10 @@
         <v>35</v>
       </c>
       <c r="C235" s="1">
-        <v>0.33751623640201328</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3375162364020134</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>38</v>
       </c>
@@ -3173,10 +3127,10 @@
         <v>11</v>
       </c>
       <c r="C236" s="1">
-        <v>0.10806920232435289</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1080692023243529</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>38</v>
       </c>
@@ -3184,10 +3138,10 @@
         <v>12</v>
       </c>
       <c r="C237" s="1">
-        <v>0.14344348499944651</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1434434849994465</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>38</v>
       </c>
@@ -3195,10 +3149,10 @@
         <v>13</v>
       </c>
       <c r="C238" s="1">
-        <v>7.968960863697705E-2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.07968960863697706</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>38</v>
       </c>
@@ -3206,10 +3160,10 @@
         <v>36</v>
       </c>
       <c r="C239" s="1">
-        <v>0.23219706242350061</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2321970624235008</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>38</v>
       </c>
@@ -3220,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>38</v>
       </c>
@@ -3231,7 +3185,7 @@
         <v>0.2252134471718249</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>39</v>
       </c>
@@ -3242,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>39</v>
       </c>
@@ -3250,10 +3204,10 @@
         <v>30</v>
       </c>
       <c r="C243" s="1">
-        <v>0.28879436728395058</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2887943672839506</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>39</v>
       </c>
@@ -3261,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="C244" s="1">
-        <v>0.50176993962504024</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.5017699396250398</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>39</v>
       </c>
@@ -3272,10 +3226,10 @@
         <v>6</v>
       </c>
       <c r="C245" s="1">
-        <v>0.61995555555555559</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6199555555555555</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -3283,10 +3237,10 @@
         <v>7</v>
       </c>
       <c r="C246" s="1">
-        <v>0.19332478632478631</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1933247863247863</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>39</v>
       </c>
@@ -3294,10 +3248,10 @@
         <v>8</v>
       </c>
       <c r="C247" s="1">
-        <v>0.14910557860765331</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1491055786076532</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>39</v>
       </c>
@@ -3305,10 +3259,10 @@
         <v>9</v>
       </c>
       <c r="C248" s="1">
-        <v>0.19615533230293661</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1961553323029366</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>39</v>
       </c>
@@ -3316,10 +3270,10 @@
         <v>10</v>
       </c>
       <c r="C249" s="1">
-        <v>0.20944721051959661</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2094472105195966</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>39</v>
       </c>
@@ -3327,10 +3281,10 @@
         <v>35</v>
       </c>
       <c r="C250" s="1">
-        <v>0.20304680259499541</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2030468025949953</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>39</v>
       </c>
@@ -3341,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>39</v>
       </c>
@@ -3349,10 +3303,10 @@
         <v>12</v>
       </c>
       <c r="C252" s="1">
-        <v>0.1087502140044514</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1087502140044513</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>39</v>
       </c>
@@ -3360,10 +3314,10 @@
         <v>13</v>
       </c>
       <c r="C253" s="1">
-        <v>0.1888238315356959</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.188823831535696</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>39</v>
       </c>
@@ -3371,10 +3325,10 @@
         <v>36</v>
       </c>
       <c r="C254" s="1">
-        <v>0.34285434356629652</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3428543435662966</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>39</v>
       </c>
@@ -3382,10 +3336,10 @@
         <v>14</v>
       </c>
       <c r="C255" s="1">
-        <v>0.26924374890321762</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2692437489032176</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>39</v>
       </c>
@@ -3393,10 +3347,10 @@
         <v>15</v>
       </c>
       <c r="C256" s="1">
-        <v>0.16966019417475731</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1696601941747573</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>40</v>
       </c>
@@ -3407,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>40</v>
       </c>
@@ -3415,10 +3369,10 @@
         <v>30</v>
       </c>
       <c r="C258" s="1">
-        <v>0.28662269148865133</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2866226914886514</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>40</v>
       </c>
@@ -3426,10 +3380,10 @@
         <v>4</v>
       </c>
       <c r="C259" s="1">
-        <v>0.4946997549019605</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4946997549019608</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>40</v>
       </c>
@@ -3437,10 +3391,10 @@
         <v>6</v>
       </c>
       <c r="C260" s="1">
-        <v>0.36214743589743592</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3621474358974359</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>40</v>
       </c>
@@ -3448,10 +3402,10 @@
         <v>7</v>
       </c>
       <c r="C261" s="1">
-        <v>0.17926704628412901</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.179267046284129</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>40</v>
       </c>
@@ -3459,10 +3413,10 @@
         <v>8</v>
       </c>
       <c r="C262" s="1">
-        <v>0.28292005420054178</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2829200542005419</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>40</v>
       </c>
@@ -3470,10 +3424,10 @@
         <v>9</v>
       </c>
       <c r="C263" s="1">
-        <v>0.18760307079897651</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1876030707989764</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>40</v>
       </c>
@@ -3481,10 +3435,10 @@
         <v>10</v>
       </c>
       <c r="C264" s="1">
-        <v>0.25088271281244517</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2508827128124454</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>40</v>
       </c>
@@ -3492,10 +3446,10 @@
         <v>35</v>
       </c>
       <c r="C265" s="1">
-        <v>0.28173233557320299</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2817323355732029</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>40</v>
       </c>
@@ -3503,10 +3457,10 @@
         <v>11</v>
       </c>
       <c r="C266" s="1">
-        <v>8.0336443313542533E-2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08033644331354252</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>40</v>
       </c>
@@ -3514,10 +3468,10 @@
         <v>12</v>
       </c>
       <c r="C267" s="1">
-        <v>8.3763616557734219E-2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08376361655773425</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>40</v>
       </c>
@@ -3528,7 +3482,7 @@
         <v>0.1425016534391535</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>40</v>
       </c>
@@ -3539,7 +3493,7 @@
         <v>0.2144553390426544</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>40</v>
       </c>
@@ -3547,10 +3501,10 @@
         <v>14</v>
       </c>
       <c r="C270" s="1">
-        <v>0.18765891710883609</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.187658917108836</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>40</v>
       </c>
@@ -3558,10 +3512,10 @@
         <v>15</v>
       </c>
       <c r="C271" s="1">
-        <v>0.25140441387216961</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2514044138721697</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>41</v>
       </c>
@@ -3572,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>41</v>
       </c>
@@ -3580,10 +3534,10 @@
         <v>30</v>
       </c>
       <c r="C273" s="1">
-        <v>0.27177083333333329</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2717708333333334</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>41</v>
       </c>
@@ -3591,10 +3545,10 @@
         <v>4</v>
       </c>
       <c r="C274" s="1">
-        <v>0.42165385710219172</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4216538571021918</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>41</v>
       </c>
@@ -3602,10 +3556,10 @@
         <v>6</v>
       </c>
       <c r="C275" s="1">
-        <v>0.38602564102564102</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3860256410256411</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>41</v>
       </c>
@@ -3613,10 +3567,10 @@
         <v>7</v>
       </c>
       <c r="C276" s="1">
-        <v>0.18054563492063491</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1805456349206349</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>41</v>
       </c>
@@ -3624,10 +3578,10 @@
         <v>8</v>
       </c>
       <c r="C277" s="1">
-        <v>0.21308844507845931</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2130884450784594</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>41</v>
       </c>
@@ -3635,10 +3589,10 @@
         <v>9</v>
       </c>
       <c r="C278" s="1">
-        <v>0.14327409333911281</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1432740933391128</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>41</v>
       </c>
@@ -3646,10 +3600,10 @@
         <v>10</v>
       </c>
       <c r="C279" s="1">
-        <v>0.12657751133656139</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1265775113365614</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>41</v>
       </c>
@@ -3657,10 +3611,10 @@
         <v>35</v>
       </c>
       <c r="C280" s="1">
-        <v>0.31205017921146949</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3120501792114695</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>41</v>
       </c>
@@ -3668,10 +3622,10 @@
         <v>11</v>
       </c>
       <c r="C281" s="1">
-        <v>0.21667328042328049</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2166732804232804</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>41</v>
       </c>
@@ -3679,10 +3633,10 @@
         <v>12</v>
       </c>
       <c r="C282" s="1">
-        <v>0.14605820105820111</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1460582010582011</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>41</v>
       </c>
@@ -3690,10 +3644,10 @@
         <v>13</v>
       </c>
       <c r="C283" s="1">
-        <v>0.19037122123764719</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1903712212376473</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>41</v>
       </c>
@@ -3701,10 +3655,10 @@
         <v>36</v>
       </c>
       <c r="C284" s="1">
-        <v>0.26707225051876993</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.26707225051877</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>41</v>
       </c>
@@ -3712,10 +3666,10 @@
         <v>14</v>
       </c>
       <c r="C285" s="1">
-        <v>0.21621981812480401</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.216219818124804</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>41</v>
       </c>
@@ -3723,10 +3677,10 @@
         <v>15</v>
       </c>
       <c r="C286" s="1">
-        <v>0.15863387978142071</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1586338797814208</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>42</v>
       </c>
@@ -3734,10 +3688,10 @@
         <v>29</v>
       </c>
       <c r="C287" s="1">
-        <v>0.33384113475177291</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3338411347517731</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>42</v>
       </c>
@@ -3748,7 +3702,7 @@
         <v>0.2064646641052508</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>42</v>
       </c>
@@ -3756,10 +3710,10 @@
         <v>4</v>
       </c>
       <c r="C289" s="1">
-        <v>0.43478861087144111</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4347886108714408</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>42</v>
       </c>
@@ -3767,10 +3721,10 @@
         <v>6</v>
       </c>
       <c r="C290" s="1">
-        <v>0.35464102564102562</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3546410256410257</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>42</v>
       </c>
@@ -3781,7 +3735,7 @@
         <v>0.1301499571550985</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>42</v>
       </c>
@@ -3789,10 +3743,10 @@
         <v>8</v>
       </c>
       <c r="C292" s="1">
-        <v>0.18820402298850569</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1882040229885057</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>42</v>
       </c>
@@ -3800,10 +3754,10 @@
         <v>9</v>
       </c>
       <c r="C293" s="1">
-        <v>9.8353030518771645E-2</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09835303051877164</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>42</v>
       </c>
@@ -3811,10 +3765,10 @@
         <v>10</v>
       </c>
       <c r="C294" s="1">
-        <v>0.22461472602739721</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2246147260273972</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>42</v>
       </c>
@@ -3822,10 +3776,10 @@
         <v>35</v>
       </c>
       <c r="C295" s="1">
-        <v>0.1175042735042736</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1175042735042735</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>42</v>
       </c>
@@ -3833,10 +3787,10 @@
         <v>11</v>
       </c>
       <c r="C296" s="1">
-        <v>0.2225756290641788</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2225756290641787</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>42</v>
       </c>
@@ -3844,10 +3798,10 @@
         <v>12</v>
       </c>
       <c r="C297" s="1">
-        <v>0.10493220899470899</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.104932208994709</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>42</v>
       </c>
@@ -3858,7 +3812,7 @@
         <v>0.1312384634137847</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>42</v>
       </c>
@@ -3866,10 +3820,10 @@
         <v>36</v>
       </c>
       <c r="C299" s="1">
-        <v>0.33492032730404842</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3349203273040484</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>42</v>
       </c>
@@ -3880,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>42</v>
       </c>
@@ -3888,10 +3842,10 @@
         <v>15</v>
       </c>
       <c r="C301" s="1">
-        <v>0.22123442057809589</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.221234420578096</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>43</v>
       </c>
@@ -3902,7 +3856,7 @@
         <v>0.1736842105263158</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>43</v>
       </c>
@@ -3910,10 +3864,10 @@
         <v>30</v>
       </c>
       <c r="C303" s="1">
-        <v>0.29033726942965182</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2903372694296519</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>43</v>
       </c>
@@ -3921,10 +3875,10 @@
         <v>4</v>
       </c>
       <c r="C304" s="1">
-        <v>0.40686450839328531</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4068645083932853</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>43</v>
       </c>
@@ -3932,10 +3886,10 @@
         <v>6</v>
       </c>
       <c r="C305" s="1">
-        <v>0.33450427350427347</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3345042735042735</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>43</v>
       </c>
@@ -3943,10 +3897,10 @@
         <v>7</v>
       </c>
       <c r="C306" s="1">
-        <v>0.12519989615784011</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1251998961578401</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>43</v>
       </c>
@@ -3954,10 +3908,10 @@
         <v>8</v>
       </c>
       <c r="C307" s="1">
-        <v>0.1873836368892744</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1873836368892743</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>43</v>
       </c>
@@ -3965,10 +3919,10 @@
         <v>9</v>
       </c>
       <c r="C308" s="1">
-        <v>8.3866220056841287E-2</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08386622005684129</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>43</v>
       </c>
@@ -3976,10 +3930,10 @@
         <v>10</v>
       </c>
       <c r="C309" s="1">
-        <v>0.17601941278553401</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1760194127855341</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>43</v>
       </c>
@@ -3987,10 +3941,10 @@
         <v>35</v>
       </c>
       <c r="C310" s="1">
-        <v>8.0061177248677243E-2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08006117724867719</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>43</v>
       </c>
@@ -3998,10 +3952,10 @@
         <v>11</v>
       </c>
       <c r="C311" s="1">
-        <v>0.20020667989418001</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2002066798941799</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>43</v>
       </c>
@@ -4009,10 +3963,10 @@
         <v>12</v>
       </c>
       <c r="C312" s="1">
-        <v>9.2955882865002323E-2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09295588286500231</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>43</v>
       </c>
@@ -4020,10 +3974,10 @@
         <v>13</v>
       </c>
       <c r="C313" s="1">
-        <v>5.2068859039678873E-2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.05206885903967887</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>43</v>
       </c>
@@ -4031,10 +3985,10 @@
         <v>36</v>
       </c>
       <c r="C314" s="1">
-        <v>0.29509888529306011</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2950988852930597</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>43</v>
       </c>
@@ -4042,10 +3996,10 @@
         <v>14</v>
       </c>
       <c r="C315" s="1">
-        <v>0.11214149139579351</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1121414913957935</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>43</v>
       </c>
@@ -4056,7 +4010,7 @@
         <v>0.221770884621697</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>44</v>
       </c>
@@ -4064,10 +4018,10 @@
         <v>29</v>
       </c>
       <c r="C317" s="1">
-        <v>0.19230623244515291</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1923062324451529</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>44</v>
       </c>
@@ -4075,10 +4029,10 @@
         <v>30</v>
       </c>
       <c r="C318" s="1">
-        <v>0.35423225308641948</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3542322530864196</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>44</v>
       </c>
@@ -4089,7 +4043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>44</v>
       </c>
@@ -4097,10 +4051,10 @@
         <v>6</v>
       </c>
       <c r="C320" s="1">
-        <v>0.37861538461538458</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3786153846153846</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>44</v>
       </c>
@@ -4111,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>44</v>
       </c>
@@ -4119,10 +4073,10 @@
         <v>8</v>
       </c>
       <c r="C322" s="1">
-        <v>0.14592592592592599</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1459259259259259</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>44</v>
       </c>
@@ -4130,10 +4084,10 @@
         <v>9</v>
       </c>
       <c r="C323" s="1">
-        <v>9.0874524714828875E-2</v>
-      </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.09087452471482889</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>44</v>
       </c>
@@ -4144,7 +4098,7 @@
         <v>0.2016294369645043</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>44</v>
       </c>
@@ -4152,10 +4106,10 @@
         <v>35</v>
       </c>
       <c r="C325" s="1">
-        <v>0.2335527518742001</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2335527518742</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>44</v>
       </c>
@@ -4163,10 +4117,10 @@
         <v>11</v>
       </c>
       <c r="C326" s="1">
-        <v>0.19800574647461339</v>
-      </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1980057464746135</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>44</v>
       </c>
@@ -4174,10 +4128,10 @@
         <v>12</v>
       </c>
       <c r="C327" s="1">
-        <v>0.14160143097643099</v>
-      </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.141601430976431</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>44</v>
       </c>
@@ -4185,10 +4139,10 @@
         <v>13</v>
       </c>
       <c r="C328" s="1">
-        <v>0.175692791005291</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1756927910052911</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>44</v>
       </c>
@@ -4196,10 +4150,10 @@
         <v>36</v>
       </c>
       <c r="C329" s="1">
-        <v>0.20104453101130459</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2010445310113047</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>44</v>
       </c>
@@ -4207,10 +4161,10 @@
         <v>14</v>
       </c>
       <c r="C330" s="1">
-        <v>0.24718382771651909</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2471838277165191</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>44</v>
       </c>
@@ -4218,10 +4172,10 @@
         <v>15</v>
       </c>
       <c r="C331" s="1">
-        <v>0.17361764337572549</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1736176433757255</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>45</v>
       </c>
@@ -4229,10 +4183,10 @@
         <v>29</v>
       </c>
       <c r="C332" s="1">
-        <v>0.26669135192956461</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2666913519295647</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>45</v>
       </c>
@@ -4240,10 +4194,10 @@
         <v>30</v>
       </c>
       <c r="C333" s="1">
-        <v>0.39638132116350899</v>
-      </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.3448722576505033</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>45</v>
       </c>
@@ -4251,10 +4205,10 @@
         <v>4</v>
       </c>
       <c r="C334" s="1">
-        <v>0.68565188172042968</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.6856518817204299</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>45</v>
       </c>
@@ -4262,10 +4216,10 @@
         <v>6</v>
       </c>
       <c r="C335" s="1">
-        <v>0.45294838145231842</v>
-      </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4529483814523184</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>45</v>
       </c>
@@ -4273,10 +4227,10 @@
         <v>7</v>
       </c>
       <c r="C336" s="1">
-        <v>0.14333918128654971</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1433391812865497</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>45</v>
       </c>
@@ -4284,10 +4238,10 @@
         <v>8</v>
       </c>
       <c r="C337" s="1">
-        <v>0.19367477058753421</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1936747705875343</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>45</v>
       </c>
@@ -4298,7 +4252,7 @@
         <v>0.1856201738754793</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>45</v>
       </c>
@@ -4309,7 +4263,7 @@
         <v>0.1920977777777777</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>45</v>
       </c>
@@ -4317,10 +4271,10 @@
         <v>35</v>
       </c>
       <c r="C340" s="1">
-        <v>0.40939656438114819</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4093965643811482</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>45</v>
       </c>
@@ -4331,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>45</v>
       </c>
@@ -4339,10 +4293,10 @@
         <v>12</v>
       </c>
       <c r="C342" s="1">
-        <v>0.21171366977664691</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.211713669776647</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>45</v>
       </c>
@@ -4350,10 +4304,10 @@
         <v>13</v>
       </c>
       <c r="C343" s="1">
-        <v>0.14926256613756619</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1492625661375662</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>45</v>
       </c>
@@ -4361,10 +4315,10 @@
         <v>36</v>
       </c>
       <c r="C344" s="1">
-        <v>0.27623769730733522</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2762376973073352</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>45</v>
       </c>
@@ -4372,10 +4326,10 @@
         <v>14</v>
       </c>
       <c r="C345" s="1">
-        <v>0.18284639482813381</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1828463948281339</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>45</v>
       </c>
@@ -4386,29 +4340,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>46</v>
       </c>
       <c r="B347" t="s">
         <v>29</v>
       </c>
-      <c r="C347" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="1">
+        <v>0.1530307772561294</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>46</v>
       </c>
       <c r="B348" t="s">
         <v>30</v>
       </c>
-      <c r="C348" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="1">
+        <v>0.1991085781090165</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>46</v>
       </c>
@@ -4416,10 +4370,10 @@
         <v>4</v>
       </c>
       <c r="C349" s="1">
-        <v>0.53619915076751201</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.4425156182346755</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>46</v>
       </c>
@@ -4427,10 +4381,10 @@
         <v>6</v>
       </c>
       <c r="C350" s="1">
-        <v>0.69314506421595845</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.342957264957265</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>46</v>
       </c>
@@ -4438,10 +4392,10 @@
         <v>7</v>
       </c>
       <c r="C351" s="1">
-        <v>0.1360784570744234</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.16733</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>46</v>
       </c>
@@ -4449,10 +4403,10 @@
         <v>8</v>
       </c>
       <c r="C352" s="1">
-        <v>0.23280429367741051</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2121865443425076</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>46</v>
       </c>
@@ -4460,10 +4414,10 @@
         <v>9</v>
       </c>
       <c r="C353" s="1">
-        <v>5.2853740552611703E-2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1255320003212078</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>46</v>
       </c>
@@ -4474,7 +4428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>46</v>
       </c>
@@ -4482,10 +4436,10 @@
         <v>35</v>
       </c>
       <c r="C355" s="1">
-        <v>0.24364599227010689</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.2899314748481543</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>46</v>
       </c>
@@ -4493,10 +4447,10 @@
         <v>11</v>
       </c>
       <c r="C356" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.133249007936508</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>46</v>
       </c>
@@ -4504,10 +4458,10 @@
         <v>12</v>
       </c>
       <c r="C357" s="1">
-        <v>0.11662310836561821</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1524388227513227</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>46</v>
       </c>
@@ -4515,10 +4469,10 @@
         <v>13</v>
       </c>
       <c r="C358" s="1">
-        <v>0.21341951250260621</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.1732093253968255</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>46</v>
       </c>
@@ -4526,10 +4480,10 @@
         <v>36</v>
       </c>
       <c r="C359" s="1">
-        <v>0.2286241248201889</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.338426639274097</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>46</v>
       </c>
@@ -4537,266 +4491,186 @@
         <v>14</v>
       </c>
       <c r="C360" s="1">
-        <v>0.14660900868265839</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+        <v>0.08392610973256129</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>46</v>
       </c>
       <c r="B361" t="s">
         <v>15</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="C361" s="1">
+        <v>0.2014471780028944</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>47</v>
+      </c>
+      <c r="B362" t="s">
+        <v>29</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>47</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363" s="1">
+        <v>0.9865591397849462</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>47</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="1">
+        <v>0.6863323500491643</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>47</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" s="1">
+        <v>0.4649705014749262</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>47</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" s="1">
+        <v>0.2170179547228727</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>47</v>
+      </c>
+      <c r="B367" t="s">
+        <v>8</v>
+      </c>
+      <c r="C367" s="1">
+        <v>0.01593806921675774</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>47</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9</v>
+      </c>
+      <c r="C368" s="1">
+        <v>0.4778548045445792</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>47</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>47</v>
+      </c>
+      <c r="B370" t="s">
+        <v>35</v>
+      </c>
+      <c r="C370" s="1">
+        <v>0.9076479076479077</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>47</v>
+      </c>
+      <c r="B371" t="s">
+        <v>11</v>
+      </c>
+      <c r="C371" s="1">
+        <v>0.1011535048802129</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>47</v>
+      </c>
+      <c r="B372" t="s">
+        <v>12</v>
+      </c>
+      <c r="C372" s="1">
+        <v>0.2115251897860593</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>47</v>
+      </c>
+      <c r="B373" t="s">
+        <v>13</v>
+      </c>
+      <c r="C373" s="1">
+        <v>0.1833037562851227</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>47</v>
+      </c>
+      <c r="B374" t="s">
+        <v>36</v>
+      </c>
+      <c r="C374" s="1">
+        <v>0.1104908736487684</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>47</v>
+      </c>
+      <c r="B375" t="s">
+        <v>14</v>
+      </c>
+      <c r="C375" s="1">
+        <v>0.432727884291961</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>47</v>
+      </c>
+      <c r="B376" t="s">
+        <v>15</v>
+      </c>
+      <c r="C376" s="1">
+        <v>0.199796126401631</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010073878C0B4B32624092A7CFEA1D661FA6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125eb5e5d7730e891d696e5bae8a7e6a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75147ae7-e8a4-4142-a6c0-11af2a39406f" xmlns:ns3="7d6416de-6a19-4689-8321-92198e7bb1df" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2f75228ffe6a76371275d10a4f80fac3" ns2:_="" ns3:_="">
-    <xsd:import namespace="75147ae7-e8a4-4142-a6c0-11af2a39406f"/>
-    <xsd:import namespace="7d6416de-6a19-4689-8321-92198e7bb1df"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="75147ae7-e8a4-4142-a6c0-11af2a39406f" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="12" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="7d6416de-6a19-4689-8321-92198e7bb1df" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="15" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="16" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C18B5D7E-2EA1-4C4F-BC33-BF73B4F1F56E}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8B1E97-213E-4293-A778-B55432206B71}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26A314C0-DE1E-4D5B-80AE-412634423B01}"/>
 </file>